--- a/DigitalResumeBuilder/src/main/resources/Excelutill.xlsx
+++ b/DigitalResumeBuilder/src/main/resources/Excelutill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repository\DigitalResumeBuilder\DigitalResumeBuilder\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29EBED-2E36-4044-9FE7-54C121093B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>username</t>
   </si>
@@ -174,9 +180,6 @@
   </si>
   <si>
     <t>src\main\resources\th.jpg</t>
-  </si>
-  <si>
-    <t>deepu</t>
   </si>
   <si>
     <t>male</t>
@@ -321,17 +324,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -370,345 +368,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -716,377 +385,62 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1284,23 +638,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6636363636364" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,23 +663,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1350,32 +705,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Isha456@"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="12.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="15.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="14.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="16.4545454545455" customWidth="1"/>
-    <col min="30" max="30" width="14.4545454545455" customWidth="1"/>
-    <col min="32" max="32" width="31.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="30" max="30" width="14.453125" customWidth="1"/>
+    <col min="32" max="32" width="31.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13" spans="1:33">
+    <row r="1" spans="1:55" s="1" customFormat="1" ht="13">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1400,106 +753,106 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" t="s">
         <v>38</v>
       </c>
       <c r="AE1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="15"/>
+      <c r="AF1"/>
       <c r="AG1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:55">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="3"/>
@@ -1535,150 +888,150 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:55">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:55" ht="12.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="K3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="23" t="s">
+      <c r="M3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="23" t="s">
+      <c r="N3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="Q3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Z3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="AA3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AE3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3" s="8"/>
+      <c r="AF3" s="3"/>
       <c r="AG3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AX3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY3" s="8" t="s">
+      <c r="AX3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AZ3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:55">
+      <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>64</v>
+      <c r="G4" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1698,7 +1051,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>50</v>
@@ -1706,80 +1059,80 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" ht="25" spans="1:33">
+    <row r="5" spans="1:55" ht="25">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>91</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
         <v>92</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="AA5" t="s">
         <v>94</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>95</v>
       </c>
       <c r="AB5" t="s">
         <v>50</v>
       </c>
       <c r="AE5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:55">
       <c r="A6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="3"/>
@@ -1815,17 +1168,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13"/>
+    <row r="8" spans="1:55" s="1" customFormat="1" ht="13"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="isha@gmail.com" tooltip="mailto:isha@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId2" display="ram@gmail..com" tooltip="mailto:ram@gmail..com"/>
-    <hyperlink ref="D3" r:id="rId3" display="deep@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId4" display="sneha@gmail.com"/>
-    <hyperlink ref="D6" r:id="rId5" display="thara@gmail.com" tooltip="mailto:thara@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" tooltip="mailto:isha@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" tooltip="mailto:ram@gmail..com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" tooltip="mailto:thara@gmail.com" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>